--- a/Team-Data/2013-14/3-8-2013-14.xlsx
+++ b/Team-Data/2013-14/3-8-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>0.426</v>
+        <v>0.433</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -684,37 +751,37 @@
         <v>37.7</v>
       </c>
       <c r="J2" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L2" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M2" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.375</v>
+        <v>0.374</v>
       </c>
       <c r="O2" t="n">
         <v>16.7</v>
       </c>
       <c r="P2" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.778</v>
+        <v>0.779</v>
       </c>
       <c r="R2" t="n">
         <v>9</v>
       </c>
       <c r="S2" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="T2" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="U2" t="n">
         <v>25.2</v>
@@ -723,10 +790,10 @@
         <v>15.3</v>
       </c>
       <c r="W2" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y2" t="n">
         <v>4.5</v>
@@ -738,25 +805,25 @@
         <v>19.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="AC2" t="n">
         <v>-1</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG2" t="n">
         <v>19</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>18</v>
@@ -774,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -789,19 +856,19 @@
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU2" t="n">
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
         <v>25</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>-3.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF3" t="n">
         <v>25</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH3" t="n">
         <v>28</v>
@@ -944,7 +1011,7 @@
         <v>25</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
         <v>26</v>
@@ -953,7 +1020,7 @@
         <v>24</v>
       </c>
       <c r="AM3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN3" t="n">
         <v>28</v>
@@ -977,7 +1044,7 @@
         <v>15</v>
       </c>
       <c r="AU3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>16</v>
@@ -1150,10 +1217,10 @@
         <v>14</v>
       </c>
       <c r="AR4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
@@ -1162,7 +1229,7 @@
         <v>23</v>
       </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>8</v>
@@ -1183,7 +1250,7 @@
         <v>22</v>
       </c>
       <c r="BC4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" t="n">
         <v>29</v>
       </c>
       <c r="F5" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>0.46</v>
+        <v>0.468</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
@@ -1230,34 +1297,34 @@
         <v>35.7</v>
       </c>
       <c r="J5" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>16.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O5" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="P5" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
         <v>0.73</v>
       </c>
       <c r="R5" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="S5" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T5" t="n">
         <v>41.8</v>
@@ -1281,16 +1348,16 @@
         <v>18.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1302,7 +1369,7 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI5" t="n">
         <v>27</v>
@@ -1314,13 +1381,13 @@
         <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM5" t="n">
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1329,10 +1396,10 @@
         <v>7</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS5" t="n">
         <v>11</v>
@@ -1362,10 +1429,10 @@
         <v>9</v>
       </c>
       <c r="BB5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1514,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
         <v>7</v>
@@ -1547,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" t="n">
         <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" t="n">
-        <v>0.375</v>
+        <v>0.381</v>
       </c>
       <c r="H7" t="n">
         <v>48.7</v>
@@ -1594,7 +1661,7 @@
         <v>36.4</v>
       </c>
       <c r="J7" t="n">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="K7" t="n">
         <v>0.427</v>
@@ -1612,19 +1679,19 @@
         <v>17.2</v>
       </c>
       <c r="P7" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R7" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S7" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T7" t="n">
-        <v>44.3</v>
+        <v>44.4</v>
       </c>
       <c r="U7" t="n">
         <v>20.4</v>
@@ -1645,13 +1712,13 @@
         <v>20</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB7" t="n">
         <v>97</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.6</v>
+        <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -1684,7 +1751,7 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
         <v>16</v>
@@ -1693,13 +1760,13 @@
         <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AR7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AT7" t="n">
         <v>10</v>
@@ -1717,7 +1784,7 @@
         <v>29</v>
       </c>
       <c r="AY7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1884,7 +1951,7 @@
         <v>25</v>
       </c>
       <c r="AT8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU8" t="n">
         <v>5</v>
@@ -1905,10 +1972,10 @@
         <v>14</v>
       </c>
       <c r="BA8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>-2.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
         <v>18</v>
@@ -2033,7 +2100,7 @@
         <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>5</v>
@@ -2093,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="BC9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2212,7 +2279,7 @@
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
         <v>8</v>
@@ -2272,7 +2339,7 @@
         <v>15</v>
       </c>
       <c r="BB10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,25 +2461,25 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
         <v>6</v>
       </c>
       <c r="AK11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO11" t="n">
         <v>22</v>
@@ -2442,7 +2509,7 @@
         <v>12</v>
       </c>
       <c r="AX11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>5</v>
@@ -2576,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2597,7 +2664,7 @@
         <v>18</v>
       </c>
       <c r="AO12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -2630,7 +2697,7 @@
         <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>6.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2758,10 +2825,10 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ13" t="n">
         <v>25</v>
@@ -2770,10 +2837,10 @@
         <v>13</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN13" t="n">
         <v>19</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -2850,43 +2917,43 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J14" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L14" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M14" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O14" t="n">
         <v>21.5</v>
       </c>
       <c r="P14" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="Q14" t="n">
         <v>0.729</v>
@@ -2895,37 +2962,37 @@
         <v>10.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="T14" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U14" t="n">
         <v>24.4</v>
       </c>
       <c r="V14" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W14" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Z14" t="n">
         <v>21.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2943,7 +3010,7 @@
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ14" t="n">
         <v>22</v>
@@ -2958,22 +3025,22 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP14" t="n">
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT14" t="n">
         <v>14</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -3110,10 +3177,10 @@
         <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF15" t="n">
         <v>27</v>
@@ -3149,7 +3216,7 @@
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
         <v>25</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -3214,37 +3281,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" t="n">
         <v>26</v>
       </c>
       <c r="G16" t="n">
-        <v>0.581</v>
+        <v>0.574</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J16" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>0.46</v>
       </c>
       <c r="L16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>14.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.359</v>
+        <v>0.356</v>
       </c>
       <c r="O16" t="n">
         <v>15.2</v>
@@ -3259,10 +3326,10 @@
         <v>11.4</v>
       </c>
       <c r="S16" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T16" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U16" t="n">
         <v>21.7</v>
@@ -3280,22 +3347,22 @@
         <v>5.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA16" t="n">
         <v>18.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.8</v>
+        <v>95.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF16" t="n">
         <v>10</v>
@@ -3322,16 +3389,16 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
       </c>
       <c r="AP16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AR16" t="n">
         <v>14</v>
@@ -3340,10 +3407,10 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
@@ -3358,16 +3425,16 @@
         <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA16" t="n">
         <v>29</v>
       </c>
       <c r="BB16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3544,7 @@
         <v>30</v>
       </c>
       <c r="AE17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF17" t="n">
         <v>1</v>
@@ -3510,10 +3577,10 @@
         <v>14</v>
       </c>
       <c r="AP17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -3578,25 +3645,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" t="n">
         <v>12</v>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" t="n">
-        <v>0.194</v>
+        <v>0.197</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J18" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K18" t="n">
         <v>0.429</v>
@@ -3605,31 +3672,31 @@
         <v>7.3</v>
       </c>
       <c r="M18" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O18" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="P18" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.759</v>
+        <v>0.756</v>
       </c>
       <c r="R18" t="n">
         <v>11.8</v>
       </c>
       <c r="S18" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T18" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U18" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V18" t="n">
         <v>15.3</v>
@@ -3641,7 +3708,7 @@
         <v>5.2</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z18" t="n">
         <v>21</v>
@@ -3650,13 +3717,13 @@
         <v>20.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.3</v>
+        <v>94</v>
       </c>
       <c r="AC18" t="n">
         <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3674,7 +3741,7 @@
         <v>28</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
         <v>29</v>
@@ -3686,7 +3753,7 @@
         <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
         <v>27</v>
@@ -3695,13 +3762,13 @@
         <v>27</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT18" t="n">
         <v>25</v>
@@ -3710,13 +3777,13 @@
         <v>18</v>
       </c>
       <c r="AV18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW18" t="n">
         <v>28</v>
       </c>
       <c r="AX18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>4</v>
       </c>
       <c r="AD19" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4032,7 +4099,7 @@
         <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI20" t="n">
         <v>14</v>
@@ -4062,7 +4129,7 @@
         <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS20" t="n">
         <v>26</v>
@@ -4083,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" t="n">
         <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>0.375</v>
+        <v>0.365</v>
       </c>
       <c r="H21" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I21" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J21" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.444</v>
@@ -4151,10 +4218,10 @@
         <v>9.1</v>
       </c>
       <c r="M21" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.368</v>
+        <v>0.366</v>
       </c>
       <c r="O21" t="n">
         <v>14.7</v>
@@ -4166,16 +4233,16 @@
         <v>0.75</v>
       </c>
       <c r="R21" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T21" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U21" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V21" t="n">
         <v>13.1</v>
@@ -4184,34 +4251,34 @@
         <v>7.6</v>
       </c>
       <c r="X21" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y21" t="n">
         <v>3.7</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>98</v>
+        <v>97.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH21" t="n">
         <v>8</v>
@@ -4220,13 +4287,13 @@
         <v>20</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
         <v>20</v>
       </c>
       <c r="AL21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM21" t="n">
         <v>5</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR21" t="n">
         <v>18</v>
@@ -4253,7 +4320,7 @@
         <v>26</v>
       </c>
       <c r="AU21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV21" t="n">
         <v>2</v>
@@ -4277,7 +4344,7 @@
         <v>21</v>
       </c>
       <c r="BC21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
-        <v>0.297</v>
+        <v>0.302</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
       </c>
       <c r="I23" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J23" t="n">
-        <v>83.2</v>
+        <v>83</v>
       </c>
       <c r="K23" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L23" t="n">
         <v>6.8</v>
@@ -4518,13 +4585,13 @@
         <v>19.7</v>
       </c>
       <c r="N23" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O23" t="n">
         <v>16.3</v>
       </c>
       <c r="P23" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q23" t="n">
         <v>0.765</v>
@@ -4536,13 +4603,13 @@
         <v>32.7</v>
       </c>
       <c r="T23" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U23" t="n">
         <v>20.8</v>
       </c>
       <c r="V23" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W23" t="n">
         <v>7.8</v>
@@ -4551,19 +4618,19 @@
         <v>4.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="n">
         <v>18.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.2</v>
+        <v>-5.1</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4581,7 +4648,7 @@
         <v>2</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ23" t="n">
         <v>14</v>
@@ -4593,16 +4660,16 @@
         <v>20</v>
       </c>
       <c r="AM23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN23" t="n">
         <v>24</v>
       </c>
       <c r="AO23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ23" t="n">
         <v>13</v>
@@ -4611,16 +4678,16 @@
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU23" t="n">
         <v>22</v>
       </c>
       <c r="AV23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW23" t="n">
         <v>14</v>
@@ -4632,7 +4699,7 @@
         <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
-        <v>0.242</v>
+        <v>0.246</v>
       </c>
       <c r="H24" t="n">
         <v>48.6</v>
@@ -4688,37 +4755,37 @@
         <v>38.1</v>
       </c>
       <c r="J24" t="n">
-        <v>88.09999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L24" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M24" t="n">
         <v>22.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.306</v>
+        <v>0.307</v>
       </c>
       <c r="O24" t="n">
         <v>16.8</v>
       </c>
       <c r="P24" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q24" t="n">
         <v>0.714</v>
       </c>
       <c r="R24" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S24" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T24" t="n">
-        <v>43.7</v>
+        <v>43.9</v>
       </c>
       <c r="U24" t="n">
         <v>21.9</v>
@@ -4733,22 +4800,22 @@
         <v>4</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Z24" t="n">
         <v>21.9</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="AC24" t="n">
         <v>-11.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4763,7 +4830,7 @@
         <v>7</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ24" t="n">
         <v>1</v>
@@ -4772,7 +4839,7 @@
         <v>27</v>
       </c>
       <c r="AL24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM24" t="n">
         <v>13</v>
@@ -4784,19 +4851,19 @@
         <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AS24" t="n">
         <v>14</v>
       </c>
       <c r="AT24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU24" t="n">
         <v>13</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4960,7 +5027,7 @@
         <v>3</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
         <v>10</v>
@@ -4969,13 +5036,13 @@
         <v>9</v>
       </c>
       <c r="AQ25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR25" t="n">
         <v>13</v>
       </c>
       <c r="AS25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5124,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS26" t="n">
         <v>5</v>
@@ -5178,7 +5245,7 @@
         <v>4</v>
       </c>
       <c r="AZ26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA26" t="n">
         <v>14</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-2.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
         <v>24</v>
@@ -5339,10 +5406,10 @@
         <v>6</v>
       </c>
       <c r="AS27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5351,7 +5418,7 @@
         <v>18</v>
       </c>
       <c r="AW27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX27" t="n">
         <v>28</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.742</v>
+        <v>0.738</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
       </c>
       <c r="I28" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="J28" t="n">
         <v>82.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.489</v>
+        <v>0.488</v>
       </c>
       <c r="L28" t="n">
         <v>8.1</v>
@@ -5428,31 +5495,31 @@
         <v>20.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.392</v>
+        <v>0.391</v>
       </c>
       <c r="O28" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P28" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.788</v>
+        <v>0.79</v>
       </c>
       <c r="R28" t="n">
         <v>8.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="T28" t="n">
         <v>42.5</v>
       </c>
       <c r="U28" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="V28" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W28" t="n">
         <v>7.4</v>
@@ -5461,34 +5528,34 @@
         <v>5.1</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.6</v>
+        <v>104.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF28" t="n">
         <v>1</v>
       </c>
       <c r="AG28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5512,7 +5579,7 @@
         <v>26</v>
       </c>
       <c r="AP28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5530,13 +5597,13 @@
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5545,10 +5612,10 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5679,7 +5746,7 @@
         <v>18</v>
       </c>
       <c r="AK29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
         <v>10</v>
@@ -5703,7 +5770,7 @@
         <v>12</v>
       </c>
       <c r="AS29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT29" t="n">
         <v>16</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F30" t="n">
         <v>41</v>
       </c>
       <c r="G30" t="n">
-        <v>0.349</v>
+        <v>0.339</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
@@ -5780,31 +5847,31 @@
         <v>35.7</v>
       </c>
       <c r="J30" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L30" t="n">
         <v>6.8</v>
       </c>
       <c r="M30" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O30" t="n">
         <v>16.3</v>
       </c>
       <c r="P30" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q30" t="n">
         <v>0.747</v>
       </c>
       <c r="R30" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S30" t="n">
         <v>30.6</v>
@@ -5813,10 +5880,10 @@
         <v>41.5</v>
       </c>
       <c r="U30" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V30" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W30" t="n">
         <v>6.7</v>
@@ -5828,22 +5895,22 @@
         <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA30" t="n">
         <v>20.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-6</v>
+        <v>-6.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF30" t="n">
         <v>25</v>
@@ -5852,7 +5919,7 @@
         <v>25</v>
       </c>
       <c r="AH30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI30" t="n">
         <v>26</v>
@@ -5861,19 +5928,19 @@
         <v>26</v>
       </c>
       <c r="AK30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN30" t="n">
         <v>23</v>
       </c>
-      <c r="AN30" t="n">
-        <v>20</v>
-      </c>
       <c r="AO30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP30" t="n">
         <v>21</v>
@@ -5900,7 +5967,7 @@
         <v>27</v>
       </c>
       <c r="AX30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY30" t="n">
         <v>18</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
@@ -5944,58 +6011,58 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31" t="n">
         <v>29</v>
       </c>
       <c r="G31" t="n">
-        <v>0.532</v>
+        <v>0.525</v>
       </c>
       <c r="H31" t="n">
         <v>49</v>
       </c>
       <c r="I31" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J31" t="n">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L31" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="M31" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.387</v>
+        <v>0.384</v>
       </c>
       <c r="O31" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P31" t="n">
         <v>21.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.728</v>
+        <v>0.731</v>
       </c>
       <c r="R31" t="n">
         <v>10.9</v>
       </c>
       <c r="S31" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T31" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U31" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V31" t="n">
         <v>14.6</v>
@@ -6016,13 +6083,13 @@
         <v>19.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6043,7 +6110,7 @@
         <v>8</v>
       </c>
       <c r="AK31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL31" t="n">
         <v>15</v>
@@ -6058,10 +6125,10 @@
         <v>28</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR31" t="n">
         <v>20</v>
@@ -6070,7 +6137,7 @@
         <v>18</v>
       </c>
       <c r="AT31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU31" t="n">
         <v>7</v>
@@ -6079,10 +6146,10 @@
         <v>13</v>
       </c>
       <c r="AW31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6094,7 +6161,7 @@
         <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-8-2013-14</t>
+          <t>2014-03-08</t>
         </is>
       </c>
     </row>
